--- a/Documentation/Stopwatch_Test_Cases.xlsx
+++ b/Documentation/Stopwatch_Test_Cases.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_F3CB03626453FA3107DCCC56D9B3B6CE2C73F5DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C54CC488-1885-4239-936F-BA63DA0554EB}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GITHUB\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A24DFD2-BC9A-4711-8F85-6F8A34E6FAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timer" sheetId="1" r:id="rId1"/>
+    <sheet name="Trigger Detection" sheetId="2" r:id="rId2"/>
+    <sheet name="Counter" sheetId="3" r:id="rId3"/>
+    <sheet name="7_Seg_Display" sheetId="4" r:id="rId4"/>
+    <sheet name="7_Seg_Adapter_Test_Cases" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -54,12 +61,6 @@
     <t>Git Commit</t>
   </si>
   <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>EX_1</t>
-  </si>
-  <si>
     <t>Summary of requirement</t>
   </si>
   <si>
@@ -72,33 +73,941 @@
     <t>Update to most recent trial</t>
   </si>
   <si>
-    <t>TDET</t>
-  </si>
-  <si>
-    <t>TDET_2</t>
-  </si>
-  <si>
-    <t>TDET_3</t>
-  </si>
-  <si>
-    <t>TIMER</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>DISP</t>
+    <t>TIMER_INT_01</t>
+  </si>
+  <si>
+    <t>TIMER_TC_01</t>
+  </si>
+  <si>
+    <t>Internal counter initialization to a value of 1</t>
+  </si>
+  <si>
+    <t>Instantiate timer module
+Observe internal signal 'counter'</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>counter' = 1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TIMER_INT_02</t>
+  </si>
+  <si>
+    <t>TIMER_TC_02</t>
+  </si>
+  <si>
+    <t>output 'o_basetick' initialization to value of 0</t>
+  </si>
+  <si>
+    <t>Observe output initialized value</t>
+  </si>
+  <si>
+    <t>o_basetick' = 1</t>
+  </si>
+  <si>
+    <t>TIMER_INT_03</t>
+  </si>
+  <si>
+    <t>TIMER_TC_03</t>
+  </si>
+  <si>
+    <t>Parameter 'MAX_COUNT' set to 500000</t>
+  </si>
+  <si>
+    <t>Observe internal parameter 'MAX_COUNT'</t>
+  </si>
+  <si>
+    <t>MAX_COUNT' = 500000</t>
+  </si>
+  <si>
+    <t>TIMER_ENB_01</t>
+  </si>
+  <si>
+    <t>TIMER_TC_04</t>
+  </si>
+  <si>
+    <t>Internal signal 'counter' increments on the rising edge of 'sys_clk' when 'i_timerenb' and 'i_reset_n' are set to 1</t>
+  </si>
+  <si>
+    <t>set clock signal 'sys_clk' to toggle every 5ns
+set 'i_timerenb' and 'i_reset_n' to 1
+Observe internal signal 'counter'
+Allow 'counter' to increment to 'MAX_COUNT' and observe if it resets to 1</t>
+  </si>
+  <si>
+    <t>sys_clk' == 100Mhz clock
+'i_timer_enb' = 1
+'i_reset_n' = 1</t>
+  </si>
+  <si>
+    <t>counter' increment on rising edge of 'sys_clk'</t>
+  </si>
+  <si>
+    <t>TIMER_ENB_02</t>
+  </si>
+  <si>
+    <t>TIMER_TC_05</t>
+  </si>
+  <si>
+    <t>Internal signal 'counter' is reset to 1 when it is equal to 'MAX_COUNT'</t>
+  </si>
+  <si>
+    <t>TIMER_ENB_03</t>
+  </si>
+  <si>
+    <t>TIMER_TC_06</t>
+  </si>
+  <si>
+    <t>o_basetick' is toggled when 'counter' equals 'MAX_COUNT'</t>
+  </si>
+  <si>
+    <t>Allow 'counter to increment to 'MAX_COUNT twice and observe output
+Observe 'o_basetick' when counter increments to 'MAX_COUNT'</t>
+  </si>
+  <si>
+    <t>o_basetick' toggle</t>
+  </si>
+  <si>
+    <t>TIMER_RST_01</t>
+  </si>
+  <si>
+    <t>TIMER_TC_07</t>
+  </si>
+  <si>
+    <t>internal counter is set to 1 when 'i_reset_n' is set to 0.</t>
+  </si>
+  <si>
+    <t>set 'i_reset_n' to 0
+Observe internal signal 'counter'
+Observe output 'o_basetick'</t>
+  </si>
+  <si>
+    <t>i_reset_n' = 0</t>
+  </si>
+  <si>
+    <t>TIMER_RST_02</t>
+  </si>
+  <si>
+    <t>TIMER_TC_08</t>
+  </si>
+  <si>
+    <t>o_basetick' is set to 0 when 'i_reset_n' is set to 0.</t>
+  </si>
+  <si>
+    <t>o_basetick' = 0</t>
+  </si>
+  <si>
+    <t>TIMER_OUT_01</t>
+  </si>
+  <si>
+    <t>TIMER_TC_09</t>
+  </si>
+  <si>
+    <t>o_basetick' toggles every 5ms when 'i_timerenb' and 'i_reset_n' are set to 1 and 'i_sclk' is a 100Mhz clock.</t>
+  </si>
+  <si>
+    <t>set clock signal 'sys_clk' to toggle every 5ns
+set 'i_timerenb' and 'i_reset_n' to 1
+Observe 'o_basetick' for a few cycles to ensure 10ms period.</t>
+  </si>
+  <si>
+    <t>o_basetick' toggle every 5ms</t>
+  </si>
+  <si>
+    <t>TRIGGER_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_TC_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check if ‘o_latchcount' and 'o_counterenb' are set to 0  when 'i_reset_n' is 0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_reset_n' to 0
+2.Observe 'o_latchcount' and 'o_counterenb'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reset_n'=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_latchcount'=0
+'o_counterenb'=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c32a9f</t>
+  </si>
+  <si>
+    <t>TRIGGER_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_TC_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> check if ‘o_countinit’ is set to 1 when ‘i_reset_n’ is 0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_reset_n' to 0
+2.Observe 'o_countinit'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">o_countinit'=1
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c32a9f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_TC_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check if ‘o_countinit’ is set to 0 when ‘i_reset_n’ is 1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_reset_n' to 1
+2.Observe 'o_countinit'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reset_n'=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">o_countinit'=0
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER_TC_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘o_latchcount’ and 'o_countenb' shall be toggled when 'i_trigger' is held high for 2 clock cycles of 'i_sclk'
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.set 'i_trigger' to 1 for 2
+clock cycles of 'i_sclk'
+2.Observe 'o_latchcount' and 'o_countenb'
+3.set 'i_trigger' to 0
+4.Observe 'o_latchcount' and 'o_countenb'
+5. Repeat the process for 4 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.'i_trigger'=1 for 2
+clock cycles of 'i_sclk'
+2.'i_trigger'=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At first and third observation, 'o_latchcount'=1 and 'o_counterenb'=1
+At second and fourth observation, 'o_latchcount'=0
+'o_counterenb'=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check that 'o_bcdcount' is initialized to "0000" when system first starts</t>
+  </si>
+  <si>
+    <t>Turn system on</t>
+  </si>
+  <si>
+    <t>o_bcdcount' = "0000"</t>
+  </si>
+  <si>
+    <t>2b20aa4</t>
+  </si>
+  <si>
+    <t>Check if 'o_bcdcount' is set to "0000" when 'i_reset_n' is set to 0</t>
+  </si>
+  <si>
+    <t>set 'i_reset_n' to 1, increment 'o_bcdcount' then after 10 ns set 'i_reset_n' to 0</t>
+  </si>
+  <si>
+    <t>Check if 'o_bcdcount' is set to "0000" when 'o_bcdcount' = ROLLOVER_COUNT + 1</t>
+  </si>
+  <si>
+    <t>Increment 'o_bcdcount' to ROLLOVER_COUNT, then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>10 ms period clock 'i_rtcclk', 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1</t>
+  </si>
+  <si>
+    <t>Check if ‘o_rolloverflag’ is set to 1 for one clock cycle when 'o_bcdcount' = ROLLOVER_COUNT + 1</t>
+  </si>
+  <si>
+    <t>‘o_rolloverflag’ = 1 for one clock cycle</t>
+  </si>
+  <si>
+    <t>Check that ‘o_bcdcount’ gets incremented on the rising edge of ‘i_rtcclk’ when ‘i_countenb’ and ‘i_latchcount’ are set to 1</t>
+  </si>
+  <si>
+    <t>set 'i_countenb' to 1, 'i_latchcount' to 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>o_bcdcount' gets incremented</t>
+  </si>
+  <si>
+    <t>i_rtcclk' of every counter is connected to the flag output 'o_rolloverflag' of the previous counter</t>
+  </si>
+  <si>
+    <t>observe 'i_rtcclk' and compare to the respective 'o_rolloverflag'</t>
+  </si>
+  <si>
+    <t>i_rtcclk' of every subcounter = previous 'o_rolloverflag' except first one 'i_rtcclk' from trigger detection</t>
+  </si>
+  <si>
+    <t>o_count'[3:0] is connected to 'o_bcdcount0'</t>
+  </si>
+  <si>
+    <t>observe 'o_count' nibbles and compare to the respective 'o_bcdcount'</t>
+  </si>
+  <si>
+    <t>o_count'[3:0] = 'o_bcdcount0'</t>
+  </si>
+  <si>
+    <t>o_count'[7:4] is connected to 'o_bcdcount1'</t>
+  </si>
+  <si>
+    <t>o_count'[7:4] = 'o_bcdcount1'</t>
+  </si>
+  <si>
+    <t>o_count'[11:8] is connected to 'o_bcdcount2'</t>
+  </si>
+  <si>
+    <t>o_count'[11:8] = 'o_bcdcount2'</t>
+  </si>
+  <si>
+    <t>o_count'[15:12] is connected to 'o_bcdcount3'</t>
+  </si>
+  <si>
+    <t>o_count'[15:12] = 'o_bcdcount3'</t>
+  </si>
+  <si>
+    <t>o_count'[19:16] is connected to 'o_bcdcount4'</t>
+  </si>
+  <si>
+    <t>o_count'[19:16] = 'o_bcdcount4'</t>
+  </si>
+  <si>
+    <t>o_count'[23:20] is connected to 'o_bcdcount5'</t>
+  </si>
+  <si>
+    <t>o_count'[23:20] = 'o_bcdcount5'</t>
+  </si>
+  <si>
+    <t>Check that ‘o_count’ gets incremented on the rising edge of ‘i_rtcclk’ when ‘i_countenb’ and ‘i_latchcount’ are set to 1</t>
+  </si>
+  <si>
+    <t>Check that 'o_count' is set to X"000000" when it increments past X"595999"</t>
+  </si>
+  <si>
+    <t>Increment 'o_count' to X"595999", then set 'i_countenb' = 1, 'i_countinit' = 0, 'i_latchcount' = 1 and wait for 10 ms</t>
+  </si>
+  <si>
+    <t>o_count' = X"000000"</t>
+  </si>
+  <si>
+    <t>Check if 'o_count' is set to X"000000" when 'i_reset_n' is set to 0</t>
+  </si>
+  <si>
+    <t>set 'i_reset_n' to 1, increment 'o_count' then after 10 ns set 'i_reset_n' to 0</t>
+  </si>
+  <si>
+    <t>SEG_DISP_01</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_1</t>
+  </si>
+  <si>
+    <t>o_segout1 will output the 7-segment code equivalent of the BCD input of i_count[3:0]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[3:0] to BCD 0.
+2. Observe if o_segout1 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[3:0] and the 7 segment code is observed through o_segout1</t>
+  </si>
+  <si>
+    <t>i_count[3:0] = "0000"
+I_count[3:0] = "0001"
+i_count[3:0] = "0010"
+i_count[3:0] = "0011"
+i_count[3:0] = "0100"
+i_count[3:0] = "0101"
+i_count[3:0] = "0110"
+i_count[3:0] = "0111"
+i_count[3:0] = "1000"
+i_count[3:0] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_1[7:0] = "11000000"
+o_segout_1[7:0] = "11111001"
+o_segout_1[7:0] = "10100100"
+o_segout_1[7:0] = "10110000"
+o_segout_1[7:0] = "10011001"
+o_segout_1[7:0] = "10010010"
+o_segout_1[7:0] = "10000010"
+o_segout_1[7:0] = "11111000"
+o_segout_1[7:0] = "10000000"
+o_segout_1[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee0</t>
+  </si>
+  <si>
+    <t>SEG_DISP_02</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_2</t>
+  </si>
+  <si>
+    <t>o_segout2 will output the 7-segment code equivalent of the BCD input of i_count[7:4]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[7:4] to BCD 0.
+2. Observe if o_segout2 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[7:4] and the 7 segment code is observed through o_segout2</t>
+  </si>
+  <si>
+    <t>i_count[7:4] = "0000"
+I_count[7:4] = "0001"
+i_count[7:4] = "0010"
+i_count[7:4] = "0011"
+i_count[7:4] = "0100"
+i_count[7:4] = "0101"
+i_count[7:4] = "0110"
+i_count[7:4] = "0111"
+i_count[7:4] = "1000"
+i_count[7:4] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_2[7:0] = "11000000"
+o_segout_2[7:0] = "11111001"
+o_segout_2[7:0] = "10100100"
+o_segout_2[7:0] = "10110000"
+o_segout_2[7:0] = "10011001"
+o_segout_2[7:0] = "10010010"
+o_segout_2[7:0] = "10000010"
+o_segout_2[7:0] = "11111000"
+o_segout_2[7:0] = "10000000"
+o_segout_2[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee1</t>
+  </si>
+  <si>
+    <t>SEG_DISP_03</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_3</t>
+  </si>
+  <si>
+    <t>o_segout3 will output the 7-segment code equivalent of the BCD input of i_count[11:8]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[11:8] to BCD 0.
+2. Observe if o_segout3 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[11:8] and the 7 segment code is observed through o_segout3</t>
+  </si>
+  <si>
+    <t>i_count[11:8] = "0000"
+I_count[11:8] = "0001"
+i_count[11:8] = "0010"
+i_count[11:8] = "0011"
+i_count[11:8] = "0100"
+i_count[11:8] = "0101"
+i_count[11:8] = "0110"
+i_count[11:8] = "0111"
+i_count[11:8] = "1000"
+i_count[11:8] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_3[7:0] = "11000000"
+o_segout_3[7:0] = "11111001"
+o_segout_3[7:0] = "10100100"
+o_segout_3[7:0] = "10110000"
+o_segout_3[7:0] = "10011001"
+o_segout_3[7:0] = "10010010"
+o_segout_3[7:0] = "10000010"
+o_segout_3[7:0] = "11111000"
+o_segout_3[7:0] = "10000000"
+o_segout_3[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee2</t>
+  </si>
+  <si>
+    <t>SEG_DISP_04</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_4</t>
+  </si>
+  <si>
+    <t>o_segout4 will output the 7-segment code equivalent of the BCD input of i_count[15:12]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[15:12] to BCD 0.
+2. Observe if o_segout4 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[15:12] and the 7 segment code is observed through o_segout4</t>
+  </si>
+  <si>
+    <t>i_count[15:12] = "0000"
+I_count[15:12] = "0001"
+i_count[15:12] = "0010"
+i_count[15:12] = "0011"
+i_count[15:12] = "0100"
+i_count[15:12] = "0101"
+i_count[15:12] = "0110"
+i_count[15:12] = "0111"
+i_count[15:12] = "1000"
+i_count[15:12] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_4[7:0] = "11000000"
+o_segout_4[7:0] = "11111001"
+o_segout_4[7:0] = "10100100"
+o_segout_4[7:0] = "10110000"
+o_segout_4[7:0] = "10011001"
+o_segout_4[7:0] = "10010010"
+o_segout_4[7:0] = "10000010"
+o_segout_4[7:0] = "11111000"
+o_segout_4[7:0] = "10000000"
+o_segout_4[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee3</t>
+  </si>
+  <si>
+    <t>SEG_DISP_05</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_5</t>
+  </si>
+  <si>
+    <t>o_segout5 will output the 7-segment code equivalent of the BCD input of i_count[19:16]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[19:16] to BCD 0.
+2. Observe if o_segout5 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[19:16] and the 7 segment code is observed through o_segout5</t>
+  </si>
+  <si>
+    <t>i_count[19:16] = "0000"
+I_count[19:16] = "0001"
+i_count[19:16] = "0010"
+i_count[19:16] = "0011"
+i_count[19:16] = "0100"
+i_count[19:16] = "0101"
+i_count[19:16] = "0110"
+i_count[19:16] = "0111"
+i_count[19:16] = "1000"
+i_count[19:16] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_5[7:0] = "11000000"
+o_segout_5[7:0] = "11111001"
+o_segout_5[7:0] = "10100100"
+o_segout_5[7:0] = "10110000"
+o_segout_5[7:0] = "10011001"
+o_segout_5[7:0] = "10010010"
+o_segout_5[7:0] = "10000010"
+o_segout_5[7:0] = "11111000"
+o_segout_5[7:0] = "10000000"
+o_segout_5[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee4</t>
+  </si>
+  <si>
+    <t>SEG_DISP_06</t>
+  </si>
+  <si>
+    <t>SEG_DISP_TC_6</t>
+  </si>
+  <si>
+    <t>o_segout6 will output the 7-segment code equivalent of the BCD input of i_count[23:20]</t>
+  </si>
+  <si>
+    <t>1. Set i_count[23:20] to BCD 0.
+2. Observe if o_segout6 is outputting the appropriate 7 segment code.
+3. Increment the BCD input to i_count.
+4. Repeat steps 2-3 until BCD 9 is input to i_count[23:20] and the 7 segment code is observed through o_segout6</t>
+  </si>
+  <si>
+    <t>i_count[23:20] = "0000"
+I_count[23:20] = "0001"
+i_count[23:20] = "0010"
+i_count[23:20] = "0011"
+i_count[23:20] = "0100"
+i_count[23:20] = "0101"
+i_count[23:20] = "0110"
+i_count[23:20] = "0111"
+i_count[23:20] = "1000"
+i_count[23:20] = "1001"</t>
+  </si>
+  <si>
+    <t>o_segout_6[7:0] = "11000000"
+o_segout_6[7:0] = "11111001"
+o_segout_6[7:0] = "10100100"
+o_segout_6[7:0] = "10110000"
+o_segout_6[7:0] = "10011001"
+o_segout_6[7:0] = "10010010"
+o_segout_6[7:0] = "10000010"
+o_segout_6[7:0] = "11111000"
+o_segout_6[7:0] = "10000000"
+o_segout_6[7:0] = "10010000"</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee5</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_01</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_01</t>
+  </si>
+  <si>
+    <t>o_segments bits will all be set to 0 when i_reset_n is set to 0</t>
+  </si>
+  <si>
+    <t>1. Set i_reset_n to 0
+2. Observe that o_segments bits are set to 0</t>
+  </si>
+  <si>
+    <t>i_reset_n = '0'</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f2</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_02</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_02</t>
+  </si>
+  <si>
+    <t>o_digits bits will all be set to 0 when i_reset_n is set to 0</t>
+  </si>
+  <si>
+    <t>1. Set i_reset_n to 0
+2. Observe that o_digits bits are set to 0</t>
+  </si>
+  <si>
+    <t>o_digits[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f3</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_03</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_03</t>
+  </si>
+  <si>
+    <t>o_segments will output the inputs of inputs i_segout1, i_segout2,
+i_segout3, i_segout4, i_segout5, and i_segout6 by cycling 
+through them from i_segout1 to i_segout6 every millisecond</t>
+  </si>
+  <si>
+    <t>1. Set i_segout1 - i_segout6 to different constant values
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe that o_segments change value every millisecond for 12 milliseconds corresponding to the inputs of i_segou1-i_segout6 in ascending order.</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_reset_n = '1'
+i_segout1[7:0] = "11111001"
+i_segout2 [7:0]= "10100100"
+i_segout3[7:0] = "10110000"
+i_segout4[7:0] = "10011001"
+i_segout5[7:0] = "10010010"
+i_segout6[7:0] = "10000010"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111001" for 1st and 7th millisecond after reset
+o_segments[7:0] = "10100100" for 2nd and 8th millisecond after reset
+o_segments[7:0] = "10110000" for 3rd and 9th millisecond after reset
+o_segments[7:0] = "10011001" for 4th and 10th millisecond after reset
+o_segments[7:0] = "10010010" for 5th and 11th millisecond after reset
+o_segment[7:0] = "100000010" for 6th and 12th millisecond after reset</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f4</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_04</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_04</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout1 for the first 
+millisecond after reset and after every 6th millisecond after i_segout1 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout1 to "11111111" and i_segout2 -i_segout6 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout1 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout1[7:0] = "11111111"
+i_segout2 [7:0]= "00000000"
+i_segout3[7:0] = "00000000"
+i_segout4[7:0] = "00000000"
+i_segout5[7:0] = "00000000"
+i_segout6[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 1st, 7th, and 13th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f5</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_05</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_05</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout2 for the second 
+millisecond after reset and after every 6th millisecond after i_segout2 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout2 to "11111111" and i_segout1 and i_segout3 -i_segout6 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout2 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout2[7:0] = "11111111"
+i_segout1 [7:0]= "00000000"
+i_segout3[7:0] = "00000000"
+i_segout4[7:0] = "00000000"
+i_segout5[7:0] = "00000000"
+i_segout6[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 2nd, 8th, and 14th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f6</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_06</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_06</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout3 for the third 
+millisecond after reset and after every 6th millisecond after i_segout3 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout3 to "11111111" and i_segout1, i_segout2, and i_segout4-i_segout6 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout3 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout3[7:0] = "11111111"
+i_segout2 [7:0]= "00000000"
+i_segout1[7:0] = "00000000"
+i_segout4[7:0] = "00000000"
+i_segout5[7:0] = "00000000"
+i_segout6[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 3rd, 9th, and 15th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f7</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_07</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_07</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout4 for the fourth
+millisecond after reset and after every 6th millisecond after i_segout4 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout4 to "11111111" and i_segout1 - i_segout3, and i_segout5 - i_segout6 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout4 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout4[7:0] = "11111111"
+i_segout2 [7:0]= "00000000"
+i_segout3[7:0] = "00000000"
+i_segout1[7:0] = "00000000"
+i_segout5[7:0] = "00000000"
+i_segout6[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 4th, 10th, and 16th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f8</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_08</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_08</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout5 for the first 
+millisecond after reset and after every 6th millisecond after i_segout5 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout5 to "11111111" and i_segout1 - i_segout4, and i_segout6 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout5 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout5[7:0] = "11111111"
+i_segout2 [7:0]= "00000000"
+i_segout3[7:0] = "00000000"
+i_segout4[7:0] = "00000000"
+i_segout1[7:0] = "00000000"
+i_segout6[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 5th, 11th, and 17th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f9</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_09</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_09</t>
+  </si>
+  <si>
+    <t>o_segments will output the input of i_segout6 for the first 
+millisecond after reset and after every 6th millisecond after i_segout6 is output of o_segments</t>
+  </si>
+  <si>
+    <t>1. Set i_segout6 to "11111111" and i_segout1 - i_segout5 to "00000000"
+2. Set i_reset_n to '0' for 5 ns
+3. Set i_reset_n to '1'
+4. Observe o_segments output i_segout6 three times over the duration of 18 milliseconds</t>
+  </si>
+  <si>
+    <t>i_sys_clk = 100 Mhz
+i_segout6[7:0] = "11111111"
+i_segout2 [7:0]= "00000000"
+i_segout3[7:0] = "00000000"
+i_segout4[7:0] = "00000000"
+i_segout5[7:0] = "00000000"
+i_segout1[7:0] = "00000000"</t>
+  </si>
+  <si>
+    <t>o_segments[7:0] = "11111111" on 6th, 12th, and 18th millisecond after reset
+o_segments[7:0] = "00000000" on every other millisecond</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f10</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_10</t>
+  </si>
+  <si>
+    <t>SEG_ADAP_TC_10</t>
+  </si>
+  <si>
+    <t>o_digits will output a one-hot encoded bit vector, cycling through 6 possibilities every 6 milliseconds</t>
+  </si>
+  <si>
+    <t>1. Set i_reset_n to '0' for 5ns
+2. Set i_reset_n to '1'
+3. Observe o_digits over the duration of 12 milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i_sys_clk = 100 Mhz
+</t>
+  </si>
+  <si>
+    <t>o_digits[7:0] = "11111110" on 1st and 7th millisecond after reset
+o_digits[7:0] = "11111101" on 2nd and 8th millisecond after reset
+o_digits[7:0] = "11111011" on 3rd and 9th millisecond after reset
+o_digits[7:0] = "11110111" on 4th and 10th millisecond after reset
+o_digits[7:0] = "11101111" on 5th and 11th millisecond after reset
+o_digits[7:0] = "11011111" on 6th and 12th millisecond after reset</t>
+  </si>
+  <si>
+    <t>ae437134060dae78f72575d02b90df204bd349f11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,9 +1015,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444D56"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,11 +1068,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,26 +1438,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.4140625" customWidth="1"/>
+    <col min="3" max="3" width="26.4140625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,82 +1486,1483 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D801C81-CBA9-4C75-9D41-D9FFD1DA736E}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.4140625" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="80.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="98" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989812CB-41F6-435A-90EA-1B7A8AEBE23E}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.08203125" customWidth="1"/>
+    <col min="3" max="3" width="21.9140625" customWidth="1"/>
+    <col min="4" max="4" width="25.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="124" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="93.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A291D16-81F2-434D-86CF-C09D31616EFB}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.9140625" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.9140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="236.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="233" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="262" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="307.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="248" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302FF75-4C12-4F50-BEF2-C7DEC723AEA3}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" customWidth="1"/>
+    <col min="7" max="7" width="22.4140625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="308" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="209.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="230.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="217" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="218.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="206" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="311.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H12:I12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,13 +3112,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099A5288-121E-4A14-A6B4-83046D76B9FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099A5288-121E-4A14-A6B4-83046D76B9FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>